--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>吴伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 07-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台页面的继续整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +521,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -562,7 +566,9 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>吴伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>后台页面的继续整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台页面整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -224,6 +236,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -521,7 +534,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -558,7 +571,9 @@
         <v>4</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1">
@@ -570,7 +585,9 @@
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -580,7 +597,9 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
   </sheetData>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>吴伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,13 @@
   </si>
   <si>
     <t>写数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07-19</t>
+  </si>
+  <si>
+    <t>后台的登录页面的修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,6 +234,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,7 +244,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -531,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -546,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="A1" s="5"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
@@ -561,7 +568,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -571,13 +578,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -585,27 +592,62 @@
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1"/>
     </row>
+    <row r="5" spans="1:6" ht="60" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="60" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度表.xlsx
+++ b/项目进度表.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve"> 07-19</t>
   </si>
   <si>
-    <t>后台的登录页面的修改</t>
+    <t>后台的登录页面的修改，logincontroller以及usermodel，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
